--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71639E5-3694-4C39-A3ED-AA3E6717156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA4675-825D-480D-8E54-E820DF4200EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{943E161D-9874-4E3A-94AE-8F84E050F570}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{7082AD52-0748-4E2D-B742-3D61B25BFFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Sep 01, 2020</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GST 8% </t>
   </si>
 </sst>
 </file>
@@ -399,34 +393,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABC7D87-ADAA-4F2D-AA52-FE11000913B6}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB2081-C5C0-46E4-97BC-E1923B3C564B}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>130792</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA4675-825D-480D-8E54-E820DF4200EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066E9A4-D423-482F-BF49-5A63DFA15C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{7082AD52-0748-4E2D-B742-3D61B25BFFC2}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{71F438F1-E3E0-43EB-842B-01715A6C2115}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Sep 01, 2020</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Tech keyboard black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4Tech HS-800 headphone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Memo Pad Tablet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Desktop C2500 Keyboard+Mouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B170 Wireless Mouse (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benq G2020HDA Screen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B525 Commercial HD Webcam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GST 8% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -393,27 +438,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB2081-C5C0-46E4-97BC-E1923B3C564B}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877AD88E-6DB8-4415-A7B4-44C44154B2B8}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>130792</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>900</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7800</v>
+      </c>
+      <c r="G4">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>18360</v>
       </c>
     </row>
   </sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066E9A4-D423-482F-BF49-5A63DFA15C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528D753-B7E4-47B4-97C1-88F64105B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{71F438F1-E3E0-43EB-842B-01715A6C2115}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{A8FDE807-35AE-4425-96EB-3BA3BC81D147}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -45,19 +45,25 @@
     <t xml:space="preserve"> Sep 01, 2020</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>ItemNo</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -438,182 +444,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877AD88E-6DB8-4415-A7B4-44C44154B2B8}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC238B0-71E4-4046-957F-A1DE3746E9FE}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>130792</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>900</v>
-      </c>
-      <c r="G3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>7800</v>
-      </c>
-      <c r="G4">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1500</v>
-      </c>
-      <c r="G5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
       </c>
       <c r="F6">
         <v>600</v>
       </c>
       <c r="G6">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>1360</v>
+      </c>
+      <c r="I6">
+        <v>18360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
+        <v>7800</v>
+      </c>
+      <c r="G8">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1500</v>
+      </c>
+      <c r="G11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2000</v>
       </c>
-      <c r="G8">
+      <c r="G12">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
         <v>17000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
         <v>1360</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
         <v>18360</v>
       </c>
     </row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528D753-B7E4-47B4-97C1-88F64105B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AA188C-B231-4B9F-99D2-4575F7290A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{A8FDE807-35AE-4425-96EB-3BA3BC81D147}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5F57BC35-9394-46A1-AA5B-41EAADADF39F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>SubTotal</t>
-  </si>
-  <si>
-    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -129,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,198 +441,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC238B0-71E4-4046-957F-A1DE3746E9FE}">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EDD902-1FA1-4D9E-A9AC-481262BE9915}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="29" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>130792</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>600</v>
+      </c>
+      <c r="G6" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>900</v>
+      </c>
+      <c r="G7" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7800</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>600</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C6">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>600</v>
-      </c>
-      <c r="G6">
-        <v>600</v>
-      </c>
-      <c r="H6">
+      <c r="F12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
         <v>1360</v>
       </c>
-      <c r="I6">
-        <v>18360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>900</v>
-      </c>
-      <c r="G7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>7800</v>
-      </c>
-      <c r="G8">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1500</v>
-      </c>
-      <c r="G9">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>600</v>
-      </c>
-      <c r="G10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1500</v>
-      </c>
-      <c r="G11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2000</v>
-      </c>
-      <c r="G12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F13" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>18360</v>
       </c>
     </row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>InvoiceNo</x:t>
   </x:si>
@@ -55,12 +55,6 @@
     <x:t xml:space="preserve">600.00 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Invoice # 130792 
-Invoice Date: Sep 01, 2020 
-Due Date: Sep 15, 2020 
-</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">02 </x:t>
   </x:si>
   <x:si>
@@ -134,12 +128,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">18360.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 130792 
-Invoice Date: Sep 01, 2020 
-Due Date: Sep 15, 2020 
-</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -185,27 +173,14 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -556,137 +531,129 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="B3" s="1" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="C4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="C5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="C6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="C7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="C8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="F9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="F10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="F11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="B12" s="1" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -1,119 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78879205-5911-47C3-A50D-C8DDE9601F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972C3E1-D59D-4A74-B79E-937F05B2D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="52590" yWindow="2265" windowWidth="17280" windowHeight="9075" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>InvoiceNo #</t>
-  </si>
-  <si>
-    <t>InvoiceDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4Tech keyboard black </t>
-  </si>
-  <si>
-    <t>130792</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sep 01, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4Tech HS-800 headphone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asus Memo Pad Tablet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Desktop C2500 Keyboard+Mouse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logitech B170 Wireless Mouse (Black) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benq G2020HDA Screen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logitech B525 Commercial HD Webcam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Total </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GST 8% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <x:si>
+    <x:t>InvoiceNo #</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InvoiceDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130792</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Sep 01, 2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">01 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4Tech keyboard black </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">600.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">02 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">A4Tech HS-800 headphone </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">900.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Asus Memo Pad Tablet </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7800.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">04 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">HP Desktop C2500 Keyboard+Mouse </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1500.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">05 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Logitech B170 Wireless Mouse (Black) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1200.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Benq G2020HDA Screen. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3000.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Logitech B525 Commercial HD Webcam </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2000.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sub Total </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">17000.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GST 8% </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1360.00 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Total </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">18360.00 </x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,169 +467,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>600</v>
-      </c>
-      <c r="G1" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>900</v>
-      </c>
-      <c r="G2" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7800</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>600</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1">
-        <v>18360</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E15"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="D12" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="D13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="D14" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="D15" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="n">
+        <x:v>18360</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>InvoiceNo #</x:t>
   </x:si>
@@ -33,6 +33,21 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Sep 01, 2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESCRIPTION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QTY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">01 </x:t>
@@ -507,141 +522,150 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D14" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D15" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E15" s="2" t="n">
-        <x:v>18360</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972C3E1-D59D-4A74-B79E-937F05B2D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D9476-DCE6-4C78-AB72-63F66BAB1D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="52590" yWindow="2265" windowWidth="17280" windowHeight="9075" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="44880" yWindow="-120" windowWidth="38640" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -169,17 +169,68 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -488,20 +539,29 @@
   </x:sheetPr>
   <x:dimension ref="A1:E15"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E1" sqref="E1 E1:E1 E1:E1048576"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.332031" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="36" style="2" customWidth="1"/>
+    <x:col min="3" max="4" width="8.886719" style="3" customWidth="1"/>
+    <x:col min="5" max="5" width="16.777344" style="3" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="E1" s="3" t="s"/>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
@@ -509,162 +569,168 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="D5" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
+      <x:c r="E5" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="C6" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
+      <x:c r="D6" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E6" s="2" t="s">
+      <x:c r="E6" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="C7" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
+      <x:c r="D7" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E7" s="2" t="s">
+      <x:c r="E7" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="C8" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
+      <x:c r="D8" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E8" s="2" t="s">
+      <x:c r="E8" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="C9" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
+      <x:c r="D9" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="s">
+      <x:c r="E9" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="C10" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
+      <x:c r="D10" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="s">
+      <x:c r="E10" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="C11" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
+      <x:c r="D11" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E11" s="2" t="s">
+      <x:c r="E11" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="3" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="C12" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
+      <x:c r="D12" s="3" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E12" s="2" t="s">
+      <x:c r="E12" s="3" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D13" s="2" t="s">
+      <x:c r="A13" s="3" t="s"/>
+      <x:c r="C13" s="3" t="s"/>
+      <x:c r="D13" s="3" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="E13" s="2" t="s">
+      <x:c r="E13" s="3" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D14" s="2" t="s">
+      <x:c r="A14" s="3" t="s"/>
+      <x:c r="C14" s="3" t="s"/>
+      <x:c r="D14" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E14" s="2" t="s">
+      <x:c r="E14" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D15" s="2" t="s">
+      <x:c r="A15" s="3" t="s"/>
+      <x:c r="C15" s="3" t="s"/>
+      <x:c r="D15" s="3" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E15" s="2" t="s">
+      <x:c r="E15" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JaneDoe130792.xlsx
@@ -169,8 +169,68 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="17">
+  <x:cellStyleXfs count="37">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
